--- a/Couleurs.xlsx
+++ b/Couleurs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\MALAM357\GMT-3051 Projet en génie géomatique II\LymeProjet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86E0EABD-97B5-4591-80DC-333FEBE5EA55}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{630C6DD2-E957-4756-8C14-B2EB77958237}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4380" yWindow="3405" windowWidth="21600" windowHeight="11505" xr2:uid="{734077E1-9928-475A-A2D0-0B4A7E3F711F}"/>
+    <workbookView xWindow="4935" yWindow="3105" windowWidth="21600" windowHeight="11505" xr2:uid="{734077E1-9928-475A-A2D0-0B4A7E3F711F}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -103,7 +103,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -137,6 +137,36 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF0000FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF009999"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF6600"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF646464"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF00FF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -153,13 +183,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -168,6 +203,11 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF00FF"/>
+      <color rgb="FFFF0000"/>
+      <color rgb="FF646464"/>
+      <color rgb="FFFF6600"/>
+      <color rgb="FF009999"/>
       <color rgb="FF0000FF"/>
       <color rgb="FFFFFF00"/>
       <color rgb="FF004B00"/>
@@ -486,7 +526,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -580,11 +620,20 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B6">
         <v>5</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>153</v>
+      </c>
+      <c r="E6">
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -605,35 +654,71 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B8">
         <v>15</v>
       </c>
+      <c r="C8">
+        <v>255</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>255</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B9">
         <v>20</v>
       </c>
+      <c r="C9">
+        <v>255</v>
+      </c>
+      <c r="D9">
+        <v>102</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="8" t="s">
         <v>12</v>
       </c>
       <c r="B10">
         <v>25</v>
       </c>
+      <c r="C10">
+        <v>100</v>
+      </c>
+      <c r="D10">
+        <v>100</v>
+      </c>
+      <c r="E10">
+        <v>100</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="9" t="s">
         <v>13</v>
       </c>
       <c r="B11">
         <v>30</v>
+      </c>
+      <c r="C11">
+        <v>255</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
